--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480990.6057857492</v>
+        <v>476843.9563720348</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6615170.302351887</v>
+        <v>6615170.302351892</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C2" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.262548922260276</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F2" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="G3" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="H3" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -983,7 +983,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
         <v>41.31500304752735</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1211,23 +1211,23 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="F9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="G9" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>332.2682810295518</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>217.736528032329</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.66775530976492</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>106.4438755113824</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>311.1536598048419</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>199.169549342004</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>51.77925078256501</v>
+        <v>141.05024842887</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>221.3744090196219</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.638481808156493</v>
       </c>
     </row>
     <row r="18">
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>85.1488807209182</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>22.71789427119442</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>136.9014715324587</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>235.8847269686981</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>86.38976318987949</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.83434871905844</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>394.2216075987399</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U23" t="n">
         <v>256.4781172123533</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>96.14030243405152</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4511434453097</v>
+        <v>84.58579029527074</v>
       </c>
       <c r="U25" t="n">
         <v>275.6021945207021</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>347.5250454388282</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>178.1108269623977</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>116.6474033880243</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>77.89034149182469</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.7800148239768</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>94.58812191922637</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.5298027268632</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T29" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>328.3386417841132</v>
       </c>
     </row>
     <row r="30">
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.9275289145745</v>
       </c>
       <c r="I31" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.7800148239768</v>
       </c>
       <c r="U31" t="n">
         <v>275.6021945207021</v>
       </c>
       <c r="V31" t="n">
-        <v>256.3167917189404</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>108.027107672935</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4843225154696</v>
+        <v>138.5810242355347</v>
       </c>
       <c r="H32" t="n">
-        <v>218.6911329292388</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.5298027268632</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>155.7874798225689</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>130.9275289145745</v>
       </c>
       <c r="I34" t="n">
-        <v>62.14946114343314</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.5930381284879342</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>285.3442663002894</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4843225154696</v>
       </c>
       <c r="H35" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.5298027268632</v>
+        <v>27.40768679202165</v>
       </c>
       <c r="T35" t="n">
         <v>209.551359884014</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>130.9275289145745</v>
       </c>
       <c r="I37" t="n">
-        <v>62.14946114343314</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.7800148239768</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6021945207021</v>
+        <v>235.9763479080035</v>
       </c>
       <c r="V37" t="n">
-        <v>184.5972006067337</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>29.23065588131095</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4843225154696</v>
+        <v>229.4596863096849</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U38" t="n">
         <v>256.4781172123533</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.7117415182138</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>26.19002492753761</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.7800148239768</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>145.6665602291112</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>151.3226520488519</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.5298027268632</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T41" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>7.474782786321541</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>128.4345770990724</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>130.9275289145745</v>
       </c>
       <c r="I43" t="n">
-        <v>62.14946114343314</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>234.5661646120611</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>209.551359884014</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>242.8408670468071</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>94.63328681120591</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,10 +4152,10 @@
         <v>163.083298214497</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T46" t="n">
-        <v>239.7800148239768</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6021945207021</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>19.89397077640728</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.754691727162038</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C2" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D2" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E2" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J2" t="n">
-        <v>1.160310701713748</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K2" t="n">
-        <v>2.508138455589628</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L2" t="n">
-        <v>4.180237967355342</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M2" t="n">
-        <v>6.040770853278582</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N2" t="n">
-        <v>7.931409106423306</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O2" t="n">
-        <v>9.716685196678938</v>
+        <v>9.716685196678942</v>
       </c>
       <c r="P2" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.38460615143387</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R2" t="n">
         <v>13.05019568904111</v>
@@ -4372,10 +4372,10 @@
         <v>13.05019568904111</v>
       </c>
       <c r="X2" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282972</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="C3" t="n">
-        <v>10.14751579941802</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="D3" t="n">
-        <v>10.14751579941802</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="E3" t="n">
-        <v>6.852011837538956</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="F3" t="n">
-        <v>6.852011837538956</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="G3" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I3" t="n">
-        <v>3.490927346818495</v>
+        <v>3.490927346818497</v>
       </c>
       <c r="J3" t="n">
-        <v>4.02654830884308</v>
+        <v>4.026548308843082</v>
       </c>
       <c r="K3" t="n">
-        <v>4.942009845394732</v>
+        <v>4.942009845394733</v>
       </c>
       <c r="L3" t="n">
-        <v>6.172960856258994</v>
+        <v>6.172960856258996</v>
       </c>
       <c r="M3" t="n">
-        <v>7.609422625729319</v>
+        <v>8.06860495435593</v>
       </c>
       <c r="N3" t="n">
-        <v>9.083903263912127</v>
+        <v>9.543085592538738</v>
       </c>
       <c r="O3" t="n">
-        <v>10.43276498467475</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P3" t="n">
-        <v>11.51534543333667</v>
+        <v>11.97452776196328</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.69820412233482</v>
+        <v>12.69820412233483</v>
       </c>
       <c r="R3" t="n">
         <v>13.05019568904111</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="C4" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="D4" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="E4" t="n">
         <v>3.163683803403904</v>
       </c>
       <c r="F4" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G4" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H4" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J4" t="n">
-        <v>3.490927346818495</v>
+        <v>0.5970352923692028</v>
       </c>
       <c r="K4" t="n">
-        <v>6.394627437018734</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L4" t="n">
-        <v>7.101256878375861</v>
+        <v>4.379161505188219</v>
       </c>
       <c r="M4" t="n">
-        <v>7.84629854752842</v>
+        <v>7.609084938225894</v>
       </c>
       <c r="N4" t="n">
-        <v>8.57362479103854</v>
+        <v>10.83900837126357</v>
       </c>
       <c r="O4" t="n">
-        <v>9.245428298083949</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P4" t="n">
-        <v>9.820272256003433</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q4" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="S4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="T4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="U4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="V4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="W4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="X4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4564,10 +4564,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952726</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030269</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
         <v>35.56734164176022</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="C6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="D6" t="n">
         <v>123.5276858794757</v>
-      </c>
-      <c r="C6" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="D6" t="n">
-        <v>81.79535956884203</v>
       </c>
       <c r="E6" t="n">
         <v>81.79535956884203</v>
@@ -4643,22 +4643,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>46.60838092749324</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>57.87076063483687</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>73.0144200153417</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M6" t="n">
-        <v>90.6863562321231</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N6" t="n">
-        <v>122.1141191020718</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O6" t="n">
         <v>138.7083639341947</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C7" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
         <v>3.305200243802188</v>
@@ -4731,46 +4731,46 @@
         <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>93.80214871704736</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M7" t="n">
-        <v>102.9679539865905</v>
+        <v>136.0791245210935</v>
       </c>
       <c r="N7" t="n">
-        <v>111.915816893406</v>
+        <v>145.026987427909</v>
       </c>
       <c r="O7" t="n">
-        <v>120.1806165414288</v>
+        <v>153.2917870759318</v>
       </c>
       <c r="P7" t="n">
-        <v>127.2525804285715</v>
+        <v>160.3637509630746</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="8">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4889,22 +4889,22 @@
         <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>49.73101332618943</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>67.40294954297083</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>85.54260932692307</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>102.136854159046</v>
+        <v>111.1248553693882</v>
       </c>
       <c r="P9" t="n">
-        <v>115.4551986112916</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4919,16 +4919,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4962,52 +4962,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>43.48833466544796</v>
       </c>
       <c r="K10" t="n">
-        <v>14.23261768427069</v>
+        <v>84.39018768250003</v>
       </c>
       <c r="L10" t="n">
-        <v>22.9258601234117</v>
+        <v>93.08343012164104</v>
       </c>
       <c r="M10" t="n">
-        <v>32.09166539295484</v>
+        <v>102.2492353911842</v>
       </c>
       <c r="N10" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1970982979997</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>119.4618979460225</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>160.3637509630746</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.393772536738</v>
+        <v>1080.420058888313</v>
       </c>
       <c r="C11" t="n">
-        <v>1316.393772536738</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D11" t="n">
-        <v>880.4839877111824</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E11" t="n">
-        <v>446.7092428694776</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.32965943808</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y11" t="n">
-        <v>1316.393772536738</v>
+        <v>1506.719629373221</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5123,7 +5123,7 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960905</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.0941331591162</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C13" t="n">
-        <v>584.0941331591162</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D13" t="n">
-        <v>584.0941331591162</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898316</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>601.5415720081295</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M13" t="n">
-        <v>1185.722647426444</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1685.067474329295</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2328.339945821711</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2086.092721725118</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="U13" t="n">
-        <v>1807.706089773861</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="V13" t="n">
-        <v>1520.750581644291</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W13" t="n">
-        <v>1248.724177230583</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.332422563995</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y13" t="n">
-        <v>775.9127518781033</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1110.030088953173</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="C14" t="n">
-        <v>1110.030088953173</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D14" t="n">
-        <v>1110.030088953173</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>676.2553441114683</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>248.387914520676</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895474</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.329659438081</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.329659438081</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C16" t="n">
-        <v>419.3529527716346</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D16" t="n">
-        <v>419.3529527716346</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E16" t="n">
-        <v>419.3529527716346</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
@@ -5442,19 +5442,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092378</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1312.719145276847</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C17" t="n">
-        <v>874.5766724602698</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D17" t="n">
-        <v>874.5766724602698</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E17" t="n">
-        <v>874.5766724602698</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2136.717063286503</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>1731.861608697536</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X17" t="n">
-        <v>1312.719145276847</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y17" t="n">
-        <v>1312.719145276847</v>
+        <v>2051.054675973789</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>750.0418582406339</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C19" t="n">
-        <v>577.4801467238589</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D19" t="n">
-        <v>411.6021539253816</v>
+        <v>133.2155219741246</v>
       </c>
       <c r="E19" t="n">
-        <v>411.6021539253816</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F19" t="n">
-        <v>234.8950998871378</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>70.15391949965618</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5685,10 +5685,10 @@
         <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>1456.672986427159</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>1994.108117000703</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540314</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1686.698306725809</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.6719023121</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.280147645513</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y19" t="n">
-        <v>941.8604769596211</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673516</v>
+        <v>1485.27551347728</v>
       </c>
       <c r="C20" t="n">
-        <v>1120.886428673516</v>
+        <v>1047.133040660703</v>
       </c>
       <c r="D20" t="n">
-        <v>684.9766438479605</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>684.9766438479605</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>684.9766438479605</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>285.4739525274377</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
@@ -5752,13 +5752,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158424</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.0733853696729</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C22" t="n">
-        <v>816.5116738528978</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D22" t="n">
-        <v>650.6336810544205</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E22" t="n">
-        <v>480.8756773051578</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>304.168623266914</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>139.4274428794324</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5913,22 +5913,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1019.751453776091</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>1150.35584611462</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.854757918509</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O22" t="n">
-        <v>1815.289888492053</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P22" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1408.311674774552</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>1408.311674774552</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>1180.89200408866</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.486617828779</v>
+        <v>1355.620960214126</v>
       </c>
       <c r="C23" t="n">
-        <v>1273.344145012202</v>
+        <v>917.4784873975498</v>
       </c>
       <c r="D23" t="n">
-        <v>875.1405009730711</v>
+        <v>481.5687025719943</v>
       </c>
       <c r="E23" t="n">
-        <v>875.1405009730711</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="F23" t="n">
-        <v>447.2730713822789</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="G23" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="H23" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I23" t="n">
-        <v>119.8847973840879</v>
+        <v>119.8847973840882</v>
       </c>
       <c r="J23" t="n">
-        <v>279.4928753818407</v>
+        <v>279.4928753818408</v>
       </c>
       <c r="K23" t="n">
-        <v>518.7040101744782</v>
+        <v>518.7040101744783</v>
       </c>
       <c r="L23" t="n">
-        <v>815.4665753802143</v>
+        <v>815.4665753802144</v>
       </c>
       <c r="M23" t="n">
         <v>1145.672109196299</v>
@@ -6013,28 +6013,28 @@
         <v>2271.569714617668</v>
       </c>
       <c r="R23" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S23" t="n">
-        <v>2389.697886514472</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="T23" t="n">
-        <v>2389.697886514472</v>
+        <v>2138.10075256409</v>
       </c>
       <c r="U23" t="n">
-        <v>2130.629081249468</v>
+        <v>1879.031947299086</v>
       </c>
       <c r="V23" t="n">
-        <v>2130.629081249468</v>
+        <v>1879.031947299086</v>
       </c>
       <c r="W23" t="n">
-        <v>2130.629081249468</v>
+        <v>1879.031947299086</v>
       </c>
       <c r="X23" t="n">
-        <v>1711.486617828779</v>
+        <v>1781.920530699034</v>
       </c>
       <c r="Y23" t="n">
-        <v>1711.486617828779</v>
+        <v>1781.920530699034</v>
       </c>
     </row>
     <row r="24">
@@ -6059,28 +6059,28 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H24" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I24" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887581</v>
       </c>
       <c r="J24" t="n">
-        <v>156.8052976309356</v>
+        <v>177.4978663195394</v>
       </c>
       <c r="K24" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058698</v>
       </c>
       <c r="M24" t="n">
-        <v>792.6902827094362</v>
+        <v>813.3828513980399</v>
       </c>
       <c r="N24" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O24" t="n">
         <v>1293.774288176245</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.6987198330484</v>
+        <v>1029.679353296757</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1370083162733</v>
+        <v>857.1176417799819</v>
       </c>
       <c r="D25" t="n">
-        <v>394.259015517796</v>
+        <v>691.2396489815046</v>
       </c>
       <c r="E25" t="n">
-        <v>224.5010117685332</v>
+        <v>521.4816452322418</v>
       </c>
       <c r="F25" t="n">
-        <v>47.79395773028943</v>
+        <v>344.774591193998</v>
       </c>
       <c r="G25" t="n">
-        <v>47.79395773028943</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="H25" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I25" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="J25" t="n">
         <v>107.4324739775689</v>
       </c>
       <c r="K25" t="n">
-        <v>205.4368764001267</v>
+        <v>205.4368764001266</v>
       </c>
       <c r="L25" t="n">
-        <v>749.0586515341685</v>
+        <v>749.0586515341683</v>
       </c>
       <c r="M25" t="n">
         <v>1340.5088784465</v>
       </c>
       <c r="N25" t="n">
-        <v>1469.594019759404</v>
+        <v>1911.852822917049</v>
       </c>
       <c r="O25" t="n">
-        <v>2008.494290023208</v>
+        <v>2200.102725174268</v>
       </c>
       <c r="P25" t="n">
         <v>2302.125461467672</v>
@@ -6171,28 +6171,28 @@
         <v>2372.760715827154</v>
       </c>
       <c r="R25" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S25" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T25" t="n">
-        <v>2234.696731519209</v>
+        <v>2304.257694297026</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.310676447793</v>
+        <v>2025.87163922561</v>
       </c>
       <c r="V25" t="n">
-        <v>1669.355168318223</v>
+        <v>1738.91613109604</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.328763904515</v>
+        <v>1466.889726682332</v>
       </c>
       <c r="X25" t="n">
-        <v>1151.937009237927</v>
+        <v>1221.497972015744</v>
       </c>
       <c r="Y25" t="n">
-        <v>924.5173385520354</v>
+        <v>1221.497972015744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>836.971829980026</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="C26" t="n">
-        <v>398.8293571634493</v>
+        <v>1345.345916988342</v>
       </c>
       <c r="D26" t="n">
-        <v>398.8293571634493</v>
+        <v>909.4361321627865</v>
       </c>
       <c r="E26" t="n">
-        <v>398.8293571634493</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F26" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="G26" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="H26" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="I26" t="n">
-        <v>119.8847973840885</v>
+        <v>119.8847973840879</v>
       </c>
       <c r="J26" t="n">
-        <v>279.4928753818411</v>
+        <v>279.4928753818405</v>
       </c>
       <c r="K26" t="n">
-        <v>518.7040101744786</v>
+        <v>518.7040101744778</v>
       </c>
       <c r="L26" t="n">
-        <v>815.4665753802149</v>
+        <v>815.466575380214</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.672109196299</v>
+        <v>1145.672109196298</v>
       </c>
       <c r="N26" t="n">
         <v>1481.220713768784</v>
       </c>
       <c r="O26" t="n">
-        <v>1798.069746028392</v>
+        <v>1798.069746028391</v>
       </c>
       <c r="P26" t="n">
-        <v>2068.493064500526</v>
+        <v>2068.493064500525</v>
       </c>
       <c r="Q26" t="n">
-        <v>2271.569714617669</v>
+        <v>2271.569714617667</v>
       </c>
       <c r="R26" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S26" t="n">
-        <v>2349.768792850973</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T26" t="n">
-        <v>2349.768792850973</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="U26" t="n">
-        <v>2090.69998758597</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="V26" t="n">
-        <v>2090.69998758597</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="W26" t="n">
-        <v>2090.69998758597</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="X26" t="n">
-        <v>1671.55752416528</v>
+        <v>2209.787960289827</v>
       </c>
       <c r="Y26" t="n">
-        <v>1263.271400464934</v>
+        <v>2209.787960289827</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H27" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="I27" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887579</v>
       </c>
       <c r="J27" t="n">
-        <v>156.8052976309356</v>
+        <v>156.8052976309363</v>
       </c>
       <c r="K27" t="n">
-        <v>319.2805044129579</v>
+        <v>319.2805044129585</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7484706172661</v>
+        <v>537.7484706172667</v>
       </c>
       <c r="M27" t="n">
-        <v>792.6902827094362</v>
+        <v>792.6902827094367</v>
       </c>
       <c r="N27" t="n">
-        <v>1054.379645964648</v>
+        <v>1054.379645964649</v>
       </c>
       <c r="O27" t="n">
         <v>1293.774288176245</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>501.2556142659328</v>
+        <v>645.4978396525757</v>
       </c>
       <c r="C28" t="n">
-        <v>383.4299542780295</v>
+        <v>472.9361281358007</v>
       </c>
       <c r="D28" t="n">
-        <v>217.5519614795522</v>
+        <v>472.9361281358007</v>
       </c>
       <c r="E28" t="n">
-        <v>47.79395773028943</v>
+        <v>303.1781243865379</v>
       </c>
       <c r="F28" t="n">
-        <v>47.79395773028943</v>
+        <v>126.4710703482941</v>
       </c>
       <c r="G28" t="n">
-        <v>47.79395773028943</v>
+        <v>126.4710703482941</v>
       </c>
       <c r="H28" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="I28" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="J28" t="n">
         <v>107.4324739775689</v>
       </c>
       <c r="K28" t="n">
-        <v>205.4368764001267</v>
+        <v>205.4368764001266</v>
       </c>
       <c r="L28" t="n">
-        <v>498.4082835275833</v>
+        <v>749.0586515341683</v>
       </c>
       <c r="M28" t="n">
-        <v>1089.858510439915</v>
+        <v>1340.5088784465</v>
       </c>
       <c r="N28" t="n">
-        <v>1661.202454910464</v>
+        <v>1911.852822917048</v>
       </c>
       <c r="O28" t="n">
-        <v>2200.102725174268</v>
+        <v>2200.102725174267</v>
       </c>
       <c r="P28" t="n">
-        <v>2302.125461467672</v>
+        <v>2302.125461467671</v>
       </c>
       <c r="Q28" t="n">
-        <v>2372.760715827154</v>
+        <v>2372.760715827153</v>
       </c>
       <c r="R28" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S28" t="n">
-        <v>2245.455661127828</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T28" t="n">
-        <v>2003.253625952093</v>
+        <v>2147.495851338736</v>
       </c>
       <c r="U28" t="n">
-        <v>1724.867570880677</v>
+        <v>1869.10979626732</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.912062751108</v>
+        <v>1582.154288137751</v>
       </c>
       <c r="W28" t="n">
-        <v>1165.885658337399</v>
+        <v>1310.127883724042</v>
       </c>
       <c r="X28" t="n">
-        <v>920.4939036708117</v>
+        <v>1064.736129057455</v>
       </c>
       <c r="Y28" t="n">
-        <v>693.0742329849199</v>
+        <v>837.3164583715629</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1879.031947299087</v>
+        <v>1186.958574055772</v>
       </c>
       <c r="C29" t="n">
-        <v>1440.88947448251</v>
+        <v>1186.958574055772</v>
       </c>
       <c r="D29" t="n">
-        <v>1004.979689656955</v>
+        <v>751.0487892302162</v>
       </c>
       <c r="E29" t="n">
-        <v>571.2049448152497</v>
+        <v>317.2740443885114</v>
       </c>
       <c r="F29" t="n">
-        <v>143.3375152244575</v>
+        <v>317.2740443885114</v>
       </c>
       <c r="G29" t="n">
-        <v>143.3375152244575</v>
+        <v>317.2740443885114</v>
       </c>
       <c r="H29" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I29" t="n">
-        <v>119.8847973840879</v>
+        <v>119.8847973840883</v>
       </c>
       <c r="J29" t="n">
         <v>279.4928753818407</v>
@@ -6469,7 +6469,7 @@
         <v>518.7040101744782</v>
       </c>
       <c r="L29" t="n">
-        <v>815.4665753802146</v>
+        <v>815.4665753802144</v>
       </c>
       <c r="M29" t="n">
         <v>1145.672109196299</v>
@@ -6478,37 +6478,37 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O29" t="n">
-        <v>1798.069746028392</v>
+        <v>1798.069746028391</v>
       </c>
       <c r="P29" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q29" t="n">
-        <v>2271.569714617669</v>
+        <v>2271.569714617668</v>
       </c>
       <c r="R29" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S29" t="n">
         <v>2349.768792850973</v>
       </c>
       <c r="T29" t="n">
-        <v>2138.10075256409</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="U29" t="n">
-        <v>1879.031947299087</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="V29" t="n">
-        <v>1879.031947299087</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="W29" t="n">
-        <v>1879.031947299087</v>
+        <v>1944.913338262006</v>
       </c>
       <c r="X29" t="n">
-        <v>1879.031947299087</v>
+        <v>1944.913338262006</v>
       </c>
       <c r="Y29" t="n">
-        <v>1879.031947299087</v>
+        <v>1613.258144540679</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H30" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I30" t="n">
-        <v>82.43638848887582</v>
+        <v>82.43638848887581</v>
       </c>
       <c r="J30" t="n">
-        <v>156.8052976309356</v>
+        <v>177.4978663195394</v>
       </c>
       <c r="K30" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L30" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058698</v>
       </c>
       <c r="M30" t="n">
-        <v>792.6902827094362</v>
+        <v>792.6902827094367</v>
       </c>
       <c r="N30" t="n">
-        <v>1054.379645964648</v>
+        <v>1054.379645964649</v>
       </c>
       <c r="O30" t="n">
         <v>1293.774288176245</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.7495327367285</v>
+        <v>864.9487490396893</v>
       </c>
       <c r="C31" t="n">
-        <v>743.1878212199534</v>
+        <v>692.3870375229143</v>
       </c>
       <c r="D31" t="n">
-        <v>577.3098284214761</v>
+        <v>526.509044724437</v>
       </c>
       <c r="E31" t="n">
-        <v>407.5518246722133</v>
+        <v>356.7510409751742</v>
       </c>
       <c r="F31" t="n">
-        <v>407.5518246722133</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="G31" t="n">
-        <v>242.8212204151457</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="H31" t="n">
-        <v>110.5711912085047</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I31" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="J31" t="n">
         <v>194.0121591422588</v>
       </c>
       <c r="K31" t="n">
-        <v>292.0165615648166</v>
+        <v>414.0074777963145</v>
       </c>
       <c r="L31" t="n">
-        <v>417.4284549308972</v>
+        <v>957.6292529303562</v>
       </c>
       <c r="M31" t="n">
-        <v>1008.878681843229</v>
+        <v>1089.858510439915</v>
       </c>
       <c r="N31" t="n">
-        <v>1580.222626313778</v>
+        <v>1661.202454910464</v>
       </c>
       <c r="O31" t="n">
-        <v>2119.122896577581</v>
+        <v>2200.102725174268</v>
       </c>
       <c r="P31" t="n">
         <v>2302.125461467672</v>
@@ -6645,28 +6645,28 @@
         <v>2372.760715827154</v>
       </c>
       <c r="R31" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S31" t="n">
-        <v>2389.697886514472</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="T31" t="n">
-        <v>2389.697886514472</v>
+        <v>2003.253625952093</v>
       </c>
       <c r="U31" t="n">
-        <v>2111.311831443055</v>
+        <v>1724.867570880677</v>
       </c>
       <c r="V31" t="n">
-        <v>1852.405981221903</v>
+        <v>1437.912062751107</v>
       </c>
       <c r="W31" t="n">
-        <v>1580.379576808195</v>
+        <v>1165.885658337399</v>
       </c>
       <c r="X31" t="n">
-        <v>1334.987822141607</v>
+        <v>1056.767367758677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1107.568151455716</v>
+        <v>1056.767367758677</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1096.04063524503</v>
+        <v>1923.469222366065</v>
       </c>
       <c r="C32" t="n">
-        <v>1096.04063524503</v>
+        <v>1485.326749549488</v>
       </c>
       <c r="D32" t="n">
-        <v>1096.04063524503</v>
+        <v>1049.416964723933</v>
       </c>
       <c r="E32" t="n">
-        <v>1096.04063524503</v>
+        <v>615.6422198822279</v>
       </c>
       <c r="F32" t="n">
-        <v>668.1732056542373</v>
+        <v>187.7747902914356</v>
       </c>
       <c r="G32" t="n">
-        <v>268.6940920022479</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="H32" t="n">
         <v>47.79395773028942</v>
       </c>
       <c r="I32" t="n">
-        <v>119.8847973840879</v>
+        <v>119.8847973840882</v>
       </c>
       <c r="J32" t="n">
-        <v>279.4928753818402</v>
+        <v>279.4928753818408</v>
       </c>
       <c r="K32" t="n">
-        <v>518.7040101744777</v>
+        <v>518.7040101744783</v>
       </c>
       <c r="L32" t="n">
-        <v>815.466575380214</v>
+        <v>815.4665753802144</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.672109196298</v>
+        <v>1145.672109196299</v>
       </c>
       <c r="N32" t="n">
         <v>1481.220713768784</v>
@@ -6742,10 +6742,10 @@
         <v>2349.768792850973</v>
       </c>
       <c r="X32" t="n">
-        <v>1930.626329430284</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.340205729937</v>
+        <v>2349.768792850973</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>82.43638848887581</v>
       </c>
       <c r="J33" t="n">
-        <v>156.8052976309356</v>
+        <v>177.4978663195394</v>
       </c>
       <c r="K33" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058698</v>
       </c>
       <c r="M33" t="n">
-        <v>792.6902827094362</v>
+        <v>813.3828513980399</v>
       </c>
       <c r="N33" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O33" t="n">
-        <v>1293.774288176245</v>
+        <v>1314.466856864848</v>
       </c>
       <c r="P33" t="n">
-        <v>1485.909593955523</v>
+        <v>1506.602162644127</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.346957624045</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>919.8948752581972</v>
+        <v>746.6473689325198</v>
       </c>
       <c r="C34" t="n">
-        <v>919.8948752581972</v>
+        <v>589.2862782026523</v>
       </c>
       <c r="D34" t="n">
-        <v>754.0168824597199</v>
+        <v>589.2862782026523</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2588787104571</v>
+        <v>419.5282744533895</v>
       </c>
       <c r="F34" t="n">
-        <v>407.5518246722133</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="G34" t="n">
         <v>242.8212204151457</v>
@@ -6861,7 +6861,7 @@
         <v>107.4324739775689</v>
       </c>
       <c r="K34" t="n">
-        <v>205.4368764001267</v>
+        <v>205.4368764001266</v>
       </c>
       <c r="L34" t="n">
         <v>749.0586515341683</v>
@@ -6870,16 +6870,16 @@
         <v>1340.5088784465</v>
       </c>
       <c r="N34" t="n">
-        <v>1469.594019759404</v>
+        <v>1911.852822917049</v>
       </c>
       <c r="O34" t="n">
-        <v>2008.494290023208</v>
+        <v>2200.102725174268</v>
       </c>
       <c r="P34" t="n">
         <v>2302.125461467672</v>
       </c>
       <c r="Q34" t="n">
-        <v>2372.760715827153</v>
+        <v>2372.760715827154</v>
       </c>
       <c r="R34" t="n">
         <v>2389.697886514471</v>
@@ -6900,10 +6900,10 @@
         <v>1165.885658337399</v>
       </c>
       <c r="X34" t="n">
-        <v>920.4939036708113</v>
+        <v>1165.885658337399</v>
       </c>
       <c r="Y34" t="n">
-        <v>919.8948752581972</v>
+        <v>938.465987651507</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1879.031947299087</v>
+        <v>1319.19028904056</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.88947448251</v>
+        <v>881.0478162239838</v>
       </c>
       <c r="D35" t="n">
-        <v>1004.979689656955</v>
+        <v>881.0478162239838</v>
       </c>
       <c r="E35" t="n">
-        <v>1004.979689656955</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="F35" t="n">
-        <v>716.7531580405007</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="G35" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="H35" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="I35" t="n">
-        <v>119.8847973840885</v>
+        <v>119.8847973840879</v>
       </c>
       <c r="J35" t="n">
-        <v>279.4928753818411</v>
+        <v>279.4928753818405</v>
       </c>
       <c r="K35" t="n">
-        <v>518.7040101744786</v>
+        <v>518.704010174478</v>
       </c>
       <c r="L35" t="n">
-        <v>815.4665753802149</v>
+        <v>815.4665753802141</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.672109196299</v>
+        <v>1145.672109196298</v>
       </c>
       <c r="N35" t="n">
         <v>1481.220713768784</v>
       </c>
       <c r="O35" t="n">
-        <v>1798.069746028392</v>
+        <v>1798.069746028391</v>
       </c>
       <c r="P35" t="n">
-        <v>2068.493064500526</v>
+        <v>2068.493064500525</v>
       </c>
       <c r="Q35" t="n">
-        <v>2271.569714617669</v>
+        <v>2271.569714617667</v>
       </c>
       <c r="R35" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S35" t="n">
-        <v>2349.768792850973</v>
+        <v>2362.013354401317</v>
       </c>
       <c r="T35" t="n">
-        <v>2138.10075256409</v>
+        <v>2150.345314114435</v>
       </c>
       <c r="U35" t="n">
-        <v>1879.031947299087</v>
+        <v>2150.345314114435</v>
       </c>
       <c r="V35" t="n">
-        <v>1879.031947299087</v>
+        <v>2150.345314114435</v>
       </c>
       <c r="W35" t="n">
-        <v>1879.031947299087</v>
+        <v>1745.489859525468</v>
       </c>
       <c r="X35" t="n">
-        <v>1879.031947299087</v>
+        <v>1745.489859525468</v>
       </c>
       <c r="Y35" t="n">
-        <v>1879.031947299087</v>
+        <v>1745.489859525468</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H36" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="I36" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887579</v>
       </c>
       <c r="J36" t="n">
-        <v>156.8052976309356</v>
+        <v>177.4978663195394</v>
       </c>
       <c r="K36" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058698</v>
       </c>
       <c r="M36" t="n">
-        <v>792.6902827094362</v>
+        <v>813.3828513980399</v>
       </c>
       <c r="N36" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O36" t="n">
-        <v>1293.774288176245</v>
+        <v>1314.466856864848</v>
       </c>
       <c r="P36" t="n">
         <v>1485.909593955523</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>745.9915289874657</v>
+        <v>927.7259825179046</v>
       </c>
       <c r="C37" t="n">
-        <v>573.4298174706906</v>
+        <v>755.1642710011296</v>
       </c>
       <c r="D37" t="n">
-        <v>407.5518246722133</v>
+        <v>589.2862782026523</v>
       </c>
       <c r="E37" t="n">
-        <v>407.5518246722133</v>
+        <v>419.5282744533895</v>
       </c>
       <c r="F37" t="n">
-        <v>407.5518246722133</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="G37" t="n">
         <v>242.8212204151457</v>
@@ -7092,55 +7092,55 @@
         <v>110.5711912085047</v>
       </c>
       <c r="I37" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028941</v>
       </c>
       <c r="J37" t="n">
         <v>194.0121591422588</v>
       </c>
       <c r="K37" t="n">
-        <v>566.7750161359521</v>
+        <v>374.4557576193224</v>
       </c>
       <c r="L37" t="n">
-        <v>1110.396791269994</v>
+        <v>918.0775327533642</v>
       </c>
       <c r="M37" t="n">
-        <v>1242.626048779553</v>
+        <v>1509.527759665696</v>
       </c>
       <c r="N37" t="n">
-        <v>1371.711190092457</v>
+        <v>2080.871704136244</v>
       </c>
       <c r="O37" t="n">
-        <v>1684.403056339594</v>
+        <v>2200.102725174267</v>
       </c>
       <c r="P37" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467671</v>
       </c>
       <c r="Q37" t="n">
-        <v>2372.760715827154</v>
+        <v>2372.760715827153</v>
       </c>
       <c r="R37" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S37" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T37" t="n">
-        <v>2147.495851338737</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.109796267321</v>
+        <v>2151.337939132649</v>
       </c>
       <c r="V37" t="n">
-        <v>1682.647977472641</v>
+        <v>1864.38243100308</v>
       </c>
       <c r="W37" t="n">
-        <v>1410.621573058932</v>
+        <v>1592.356026589371</v>
       </c>
       <c r="X37" t="n">
-        <v>1165.229818392345</v>
+        <v>1346.964271922784</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.8101477064529</v>
+        <v>1119.544601236892</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>914.9414592304828</v>
+        <v>1151.488636307444</v>
       </c>
       <c r="C38" t="n">
-        <v>476.7989864139061</v>
+        <v>713.3461634908679</v>
       </c>
       <c r="D38" t="n">
-        <v>476.7989864139061</v>
+        <v>713.3461634908679</v>
       </c>
       <c r="E38" t="n">
-        <v>476.7989864139061</v>
+        <v>279.571418649163</v>
       </c>
       <c r="F38" t="n">
-        <v>447.2730713822789</v>
+        <v>279.571418649163</v>
       </c>
       <c r="G38" t="n">
         <v>47.79395773028942</v>
@@ -7171,19 +7171,19 @@
         <v>47.79395773028942</v>
       </c>
       <c r="I38" t="n">
-        <v>119.8847973840881</v>
+        <v>119.8847973840883</v>
       </c>
       <c r="J38" t="n">
-        <v>279.4928753818408</v>
+        <v>279.4928753818407</v>
       </c>
       <c r="K38" t="n">
-        <v>518.7040101744783</v>
+        <v>518.704010174478</v>
       </c>
       <c r="L38" t="n">
-        <v>815.4665753802145</v>
+        <v>815.466575380214</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.672109196299</v>
+        <v>1145.672109196298</v>
       </c>
       <c r="N38" t="n">
         <v>1481.220713768784</v>
@@ -7192,34 +7192,34 @@
         <v>1798.069746028391</v>
       </c>
       <c r="P38" t="n">
-        <v>2068.493064500526</v>
+        <v>2068.493064500525</v>
       </c>
       <c r="Q38" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617667</v>
       </c>
       <c r="R38" t="n">
         <v>2389.697886514471</v>
       </c>
       <c r="S38" t="n">
-        <v>2349.768792850973</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T38" t="n">
-        <v>2349.768792850973</v>
+        <v>2178.029846227588</v>
       </c>
       <c r="U38" t="n">
-        <v>2090.69998758597</v>
+        <v>1918.961040962585</v>
       </c>
       <c r="V38" t="n">
-        <v>1728.083037519796</v>
+        <v>1556.344090896411</v>
       </c>
       <c r="W38" t="n">
-        <v>1323.227582930829</v>
+        <v>1151.488636307444</v>
       </c>
       <c r="X38" t="n">
-        <v>1323.227582930829</v>
+        <v>1151.488636307444</v>
       </c>
       <c r="Y38" t="n">
-        <v>914.9414592304828</v>
+        <v>1151.488636307444</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>177.4978663195394</v>
       </c>
       <c r="K39" t="n">
-        <v>339.9730731015617</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L39" t="n">
-        <v>558.4410393058699</v>
+        <v>537.7484706172667</v>
       </c>
       <c r="M39" t="n">
-        <v>813.38285139804</v>
+        <v>792.6902827094367</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.379645964648</v>
+        <v>1054.379645964649</v>
       </c>
       <c r="O39" t="n">
         <v>1293.774288176245</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.9916657948046</v>
+        <v>923.8838947239924</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4299542780295</v>
+        <v>751.3221832072173</v>
       </c>
       <c r="D40" t="n">
-        <v>217.5519614795522</v>
+        <v>585.44419040874</v>
       </c>
       <c r="E40" t="n">
-        <v>47.79395773028942</v>
+        <v>415.6861866594773</v>
       </c>
       <c r="F40" t="n">
-        <v>47.79395773028942</v>
+        <v>238.9791326212335</v>
       </c>
       <c r="G40" t="n">
-        <v>47.79395773028942</v>
+        <v>74.24852836416579</v>
       </c>
       <c r="H40" t="n">
         <v>47.79395773028942</v>
@@ -7332,52 +7332,52 @@
         <v>47.79395773028942</v>
       </c>
       <c r="J40" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K40" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001266</v>
       </c>
       <c r="L40" t="n">
-        <v>1110.396791269994</v>
+        <v>498.4082835275836</v>
       </c>
       <c r="M40" t="n">
-        <v>1701.847018182325</v>
+        <v>1089.858510439915</v>
       </c>
       <c r="N40" t="n">
-        <v>1912.678929271912</v>
+        <v>1661.202454910464</v>
       </c>
       <c r="O40" t="n">
-        <v>2031.909950309935</v>
+        <v>2200.102725174268</v>
       </c>
       <c r="P40" t="n">
-        <v>2133.932686603339</v>
+        <v>2302.125461467672</v>
       </c>
       <c r="Q40" t="n">
-        <v>2372.760715827153</v>
+        <v>2372.760715827154</v>
       </c>
       <c r="R40" t="n">
         <v>2389.697886514471</v>
       </c>
       <c r="S40" t="n">
-        <v>2245.455661127827</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T40" t="n">
-        <v>2003.253625952093</v>
+        <v>2147.495851338737</v>
       </c>
       <c r="U40" t="n">
-        <v>1724.867570880677</v>
+        <v>2147.495851338737</v>
       </c>
       <c r="V40" t="n">
-        <v>1437.912062751107</v>
+        <v>1860.540343209167</v>
       </c>
       <c r="W40" t="n">
-        <v>1165.885658337399</v>
+        <v>1588.513938795459</v>
       </c>
       <c r="X40" t="n">
-        <v>920.4939036708113</v>
+        <v>1343.122184128871</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0742329849195</v>
+        <v>1115.70251344298</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1474.17649271012</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="C41" t="n">
-        <v>1036.034019893543</v>
+        <v>1345.345916988342</v>
       </c>
       <c r="D41" t="n">
-        <v>600.1242350679879</v>
+        <v>909.4361321627865</v>
       </c>
       <c r="E41" t="n">
-        <v>600.1242350679879</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F41" t="n">
-        <v>600.1242350679879</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="G41" t="n">
-        <v>200.6451214159985</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="H41" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I41" t="n">
-        <v>119.8847973840885</v>
+        <v>119.8847973840882</v>
       </c>
       <c r="J41" t="n">
-        <v>279.4928753818411</v>
+        <v>279.4928753818408</v>
       </c>
       <c r="K41" t="n">
-        <v>518.7040101744786</v>
+        <v>518.7040101744783</v>
       </c>
       <c r="L41" t="n">
-        <v>815.4665753802149</v>
+        <v>815.4665753802144</v>
       </c>
       <c r="M41" t="n">
         <v>1145.672109196299</v>
@@ -7426,37 +7426,37 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O41" t="n">
-        <v>1798.069746028392</v>
+        <v>1798.069746028391</v>
       </c>
       <c r="P41" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q41" t="n">
-        <v>2271.569714617669</v>
+        <v>2271.569714617668</v>
       </c>
       <c r="R41" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S41" t="n">
         <v>2349.768792850973</v>
       </c>
       <c r="T41" t="n">
-        <v>2138.10075256409</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="U41" t="n">
-        <v>1879.031947299087</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="V41" t="n">
-        <v>1879.031947299087</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="W41" t="n">
-        <v>1474.17649271012</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="X41" t="n">
-        <v>1474.17649271012</v>
+        <v>1930.626329430283</v>
       </c>
       <c r="Y41" t="n">
-        <v>1474.17649271012</v>
+        <v>1930.626329430283</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H42" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I42" t="n">
-        <v>82.43638848887582</v>
+        <v>82.43638848887581</v>
       </c>
       <c r="J42" t="n">
         <v>177.4978663195394</v>
       </c>
       <c r="K42" t="n">
-        <v>339.9730731015617</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L42" t="n">
-        <v>558.4410393058699</v>
+        <v>558.4410393058698</v>
       </c>
       <c r="M42" t="n">
-        <v>813.38285139804</v>
+        <v>813.3828513980399</v>
       </c>
       <c r="N42" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O42" t="n">
-        <v>1293.774288176245</v>
+        <v>1314.466856864848</v>
       </c>
       <c r="P42" t="n">
-        <v>1485.909593955523</v>
+        <v>1506.602162644127</v>
       </c>
       <c r="Q42" t="n">
-        <v>1614.346957624045</v>
+        <v>1635.039526312648</v>
       </c>
       <c r="R42" t="n">
         <v>1676.818072250612</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>887.6998748283108</v>
+        <v>927.7259825179046</v>
       </c>
       <c r="C43" t="n">
-        <v>715.1381633115358</v>
+        <v>755.1642710011296</v>
       </c>
       <c r="D43" t="n">
-        <v>549.2601705130585</v>
+        <v>589.2862782026523</v>
       </c>
       <c r="E43" t="n">
-        <v>549.2601705130585</v>
+        <v>419.5282744533895</v>
       </c>
       <c r="F43" t="n">
-        <v>372.5531164748147</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="G43" t="n">
         <v>242.8212204151457</v>
@@ -7566,55 +7566,55 @@
         <v>110.5711912085047</v>
       </c>
       <c r="I43" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="J43" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K43" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001266</v>
       </c>
       <c r="L43" t="n">
-        <v>1110.396791269994</v>
+        <v>749.0586515341683</v>
       </c>
       <c r="M43" t="n">
-        <v>1436.086893988667</v>
+        <v>881.2879090437273</v>
       </c>
       <c r="N43" t="n">
-        <v>1565.172035301571</v>
+        <v>1313.695560940122</v>
       </c>
       <c r="O43" t="n">
-        <v>1684.403056339594</v>
+        <v>1852.595831203926</v>
       </c>
       <c r="P43" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467672</v>
       </c>
       <c r="Q43" t="n">
         <v>2372.760715827154</v>
       </c>
       <c r="R43" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S43" t="n">
-        <v>2389.697886514472</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="T43" t="n">
-        <v>2389.697886514472</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="U43" t="n">
-        <v>2111.311831443055</v>
+        <v>1967.069606056411</v>
       </c>
       <c r="V43" t="n">
-        <v>1824.356323313486</v>
+        <v>1680.114097926841</v>
       </c>
       <c r="W43" t="n">
-        <v>1552.329918899777</v>
+        <v>1408.087693513133</v>
       </c>
       <c r="X43" t="n">
-        <v>1306.93816423319</v>
+        <v>1162.695938846545</v>
       </c>
       <c r="Y43" t="n">
-        <v>1079.518493547298</v>
+        <v>935.2762681606537</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1311.050285798627</v>
+        <v>987.9843090403789</v>
       </c>
       <c r="C44" t="n">
-        <v>1311.050285798627</v>
+        <v>987.9843090403789</v>
       </c>
       <c r="D44" t="n">
-        <v>875.1405009730711</v>
+        <v>987.9843090403789</v>
       </c>
       <c r="E44" t="n">
-        <v>875.1405009730711</v>
+        <v>554.2095641986741</v>
       </c>
       <c r="F44" t="n">
-        <v>447.2730713822789</v>
+        <v>317.2740443885114</v>
       </c>
       <c r="G44" t="n">
-        <v>47.79395773028943</v>
+        <v>317.2740443885114</v>
       </c>
       <c r="H44" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I44" t="n">
-        <v>119.8847973840879</v>
+        <v>119.8847973840883</v>
       </c>
       <c r="J44" t="n">
         <v>279.4928753818407</v>
@@ -7654,7 +7654,7 @@
         <v>518.7040101744782</v>
       </c>
       <c r="L44" t="n">
-        <v>815.4665753802146</v>
+        <v>815.4665753802144</v>
       </c>
       <c r="M44" t="n">
         <v>1145.672109196299</v>
@@ -7663,37 +7663,37 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O44" t="n">
-        <v>1798.069746028392</v>
+        <v>1798.069746028391</v>
       </c>
       <c r="P44" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q44" t="n">
-        <v>2271.569714617669</v>
+        <v>2271.569714617668</v>
       </c>
       <c r="R44" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S44" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T44" t="n">
-        <v>2178.029846227589</v>
+        <v>2178.029846227588</v>
       </c>
       <c r="U44" t="n">
-        <v>1918.961040962585</v>
+        <v>2178.029846227588</v>
       </c>
       <c r="V44" t="n">
-        <v>1556.344090896412</v>
+        <v>1815.412896161415</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.050285798627</v>
+        <v>1815.412896161415</v>
       </c>
       <c r="X44" t="n">
-        <v>1311.050285798627</v>
+        <v>1396.270432740725</v>
       </c>
       <c r="Y44" t="n">
-        <v>1311.050285798627</v>
+        <v>987.9843090403789</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H45" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I45" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887581</v>
       </c>
       <c r="J45" t="n">
-        <v>156.8052976309356</v>
+        <v>177.4978663195394</v>
       </c>
       <c r="K45" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015616</v>
       </c>
       <c r="L45" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058698</v>
       </c>
       <c r="M45" t="n">
-        <v>792.6902827094362</v>
+        <v>813.3828513980399</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O45" t="n">
-        <v>1293.774288176245</v>
+        <v>1314.466856864848</v>
       </c>
       <c r="P45" t="n">
         <v>1485.909593955523</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>897.4293240901161</v>
+        <v>1015.484053855375</v>
       </c>
       <c r="C46" t="n">
-        <v>724.867612573341</v>
+        <v>919.8948752581972</v>
       </c>
       <c r="D46" t="n">
-        <v>558.9896197748637</v>
+        <v>754.0168824597199</v>
       </c>
       <c r="E46" t="n">
-        <v>389.2316160256009</v>
+        <v>584.2588787104571</v>
       </c>
       <c r="F46" t="n">
-        <v>212.5245619873571</v>
+        <v>407.5518246722133</v>
       </c>
       <c r="G46" t="n">
-        <v>47.79395773028943</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="H46" t="n">
-        <v>47.79395773028943</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I46" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="J46" t="n">
         <v>194.0121591422588</v>
       </c>
       <c r="K46" t="n">
-        <v>292.0165615648166</v>
+        <v>566.7750161359521</v>
       </c>
       <c r="L46" t="n">
-        <v>498.4082835275833</v>
+        <v>1110.396791269994</v>
       </c>
       <c r="M46" t="n">
-        <v>1089.858510439915</v>
+        <v>1242.626048779553</v>
       </c>
       <c r="N46" t="n">
-        <v>1661.202454910464</v>
+        <v>1371.711190092457</v>
       </c>
       <c r="O46" t="n">
-        <v>2200.102725174268</v>
+        <v>1684.403056339594</v>
       </c>
       <c r="P46" t="n">
-        <v>2302.125461467672</v>
+        <v>2133.93268660334</v>
       </c>
       <c r="Q46" t="n">
         <v>2372.760715827154</v>
       </c>
       <c r="R46" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S46" t="n">
-        <v>2389.697886514472</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="T46" t="n">
-        <v>2147.495851338737</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="U46" t="n">
-        <v>1869.109796267321</v>
+        <v>1967.069606056411</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.154288137752</v>
+        <v>1680.114097926841</v>
       </c>
       <c r="W46" t="n">
-        <v>1562.059368161583</v>
+        <v>1680.114097926841</v>
       </c>
       <c r="X46" t="n">
-        <v>1316.667613494995</v>
+        <v>1434.722343260254</v>
       </c>
       <c r="Y46" t="n">
-        <v>1089.247942809103</v>
+        <v>1207.302672574362</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.065385582259226</v>
+        <v>3.065385582259228</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.4638205339662722</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4638205339662704</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.923123287322518</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.375249808503935</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.54878180977833</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2.509981579681936</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.52787594901773</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.5722703967989524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.860536639450492</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>34.65901652406723</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13.42232634949133</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8379,10 +8379,10 @@
         <v>34.45295969778793</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.9116767238302828</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.44562680252832</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>11.14042390876192</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>20.21921301011771</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>27.86212986344086</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479665</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>36.41327262365586</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.530227110285693</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638102</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8859,13 +8859,13 @@
         <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9222706564249</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>323.2928365343471</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>156.7304232042867</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9333,13 +9333,13 @@
         <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P19" t="n">
-        <v>181.0222629918462</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.62967161639972</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9804,16 +9804,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>463.8595650533057</v>
+        <v>463.8595650533058</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>170.726142645653</v>
       </c>
       <c r="P25" t="n">
-        <v>193.5438738899588</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>169.2520341023999</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>463.8595650533058</v>
+        <v>463.8595650533056</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>170.7261426456525</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>123.2231477085838</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>463.8595650533057</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>81.79780666331953</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10518,13 +10518,13 @@
         <v>463.8595650533058</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>170.726142645653</v>
       </c>
       <c r="P34" t="n">
-        <v>193.5438738899584</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>83.27191520657163</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>463.8595650533056</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>195.4149951607214</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>169.2520341024004</v>
       </c>
       <c r="M40" t="n">
         <v>463.8595650533057</v>
       </c>
       <c r="N40" t="n">
-        <v>82.57249472392232</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>195.4149951607212</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>306.386374326758</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>81.79780666331925</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>463.8595650533058</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>195.4149951607214</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>18.77402585779841</v>
       </c>
       <c r="C2" t="n">
-        <v>30.49849916615064</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.17444847102748</v>
+        <v>26.5633443025609</v>
       </c>
       <c r="F2" t="n">
-        <v>20.71510220415747</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>11.68848986422212</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0.9407135410828169</v>
       </c>
     </row>
     <row r="3">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>101.4927670588591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>186.4667344310141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>111.3145178010429</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.3808763442451</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>120.397027172458</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>196.3381150653135</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>119.0568436190423</v>
+        <v>29.78584597273735</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>137.6163715458898</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>394.5647806551866</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>82.91154299085191</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>108.3027257432828</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>294.6492154448412</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>31.13960897283053</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77.82944968061304</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1862712954188</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>37.32907937856004</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7852857916396</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>318.8107363524309</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.14946114343314</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>142.7998031327776</v>
       </c>
       <c r="T25" t="n">
-        <v>86.32887137866709</v>
+        <v>155.1942245287061</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>76.06370985605611</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.4843225154696</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7852857916396</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T26" t="n">
         <v>209.551359884014</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,10 +24508,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>236.8402118240847</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>54.18869101358305</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.083298214497</v>
       </c>
       <c r="H28" t="n">
-        <v>130.9275289145745</v>
+        <v>53.03718742274982</v>
       </c>
       <c r="I28" t="n">
-        <v>62.14946114343314</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4843225154696</v>
       </c>
       <c r="H29" t="n">
-        <v>172.1971638724133</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>75.86462067922992</v>
       </c>
     </row>
     <row r="30">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.7800148239768</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>27.76916132933343</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>134.9107294469866</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>256.9032982799348</v>
       </c>
       <c r="H32" t="n">
-        <v>48.09415286240079</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>15.04861457903843</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.5524358505449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>138.2444889945949</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>12.12211593484156</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>142.7998031327776</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.7800148239768</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.62584661269861</v>
       </c>
       <c r="V37" t="n">
-        <v>99.4887524415401</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>394.3580994135734</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>166.0246362057847</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7852857916396</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T38" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.18869101358348</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9275289145745</v>
+        <v>104.7375039870369</v>
       </c>
       <c r="I40" t="n">
-        <v>62.14946114343314</v>
+        <v>62.14946114343316</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>276.3700145509475</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H41" t="n">
-        <v>115.4626337427877</v>
+        <v>266.7852857916397</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>182.4256497454757</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>34.64872111542468</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.7800148239768</v>
@@ -25870,19 +25870,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>189.0225906828232</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H44" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.5298027268632</v>
+        <v>39.52980272686321</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>157.9660329962699</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>76.20280759040141</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.7800148239768</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>249.4121695931641</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356907.3691713901</v>
+        <v>356907.3691713903</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356907.3691713901</v>
+        <v>356907.3691713902</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360404.0176039307</v>
+        <v>360404.0176039306</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360404.0176039306</v>
+        <v>360404.0176039305</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>360404.0176039307</v>
+        <v>360404.0176039306</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360404.0176039306</v>
+        <v>360404.0176039305</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360404.0176039307</v>
+        <v>360404.0176039306</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>353964.9188419533</v>
       </c>
       <c r="C2" t="n">
+        <v>361899.4409260259</v>
+      </c>
+      <c r="D2" t="n">
         <v>361899.4409260257</v>
       </c>
-      <c r="D2" t="n">
-        <v>361899.4409260258</v>
-      </c>
       <c r="E2" t="n">
-        <v>212351.7212561034</v>
+        <v>212351.7212561035</v>
       </c>
       <c r="F2" t="n">
         <v>212351.7212561034</v>
@@ -26331,13 +26331,13 @@
         <v>212351.7212561034</v>
       </c>
       <c r="H2" t="n">
-        <v>212351.7212561035</v>
+        <v>212351.7212561034</v>
       </c>
       <c r="I2" t="n">
-        <v>214403.1183171197</v>
+        <v>214403.1183171196</v>
       </c>
       <c r="J2" t="n">
-        <v>214403.1183171197</v>
+        <v>214403.1183171196</v>
       </c>
       <c r="K2" t="n">
         <v>214403.1183171196</v>
@@ -26346,7 +26346,7 @@
         <v>214403.1183171196</v>
       </c>
       <c r="M2" t="n">
-        <v>214403.1183171197</v>
+        <v>214403.1183171196</v>
       </c>
       <c r="N2" t="n">
         <v>214403.1183171196</v>
@@ -26355,7 +26355,7 @@
         <v>214403.1183171196</v>
       </c>
       <c r="P2" t="n">
-        <v>214403.1183171197</v>
+        <v>214403.1183171196</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3658.813870389771</v>
+        <v>3658.813870389761</v>
       </c>
       <c r="C3" t="n">
         <v>39694.34694747527</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6323.228693835192</v>
+        <v>6323.228693835076</v>
       </c>
       <c r="J3" t="n">
-        <v>853.626350215815</v>
+        <v>853.626350215868</v>
       </c>
       <c r="K3" t="n">
-        <v>9793.484013311658</v>
+        <v>9793.484013311734</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26441,19 +26441,19 @@
         <v>19419.45995163232</v>
       </c>
       <c r="J4" t="n">
-        <v>19419.45995163232</v>
+        <v>19419.45995163231</v>
       </c>
       <c r="K4" t="n">
         <v>19419.45995163232</v>
       </c>
       <c r="L4" t="n">
+        <v>19419.45995163232</v>
+      </c>
+      <c r="M4" t="n">
         <v>19419.45995163231</v>
       </c>
-      <c r="M4" t="n">
-        <v>19419.45995163232</v>
-      </c>
       <c r="N4" t="n">
-        <v>19419.45995163232</v>
+        <v>19419.45995163233</v>
       </c>
       <c r="O4" t="n">
         <v>19419.45995163232</v>
@@ -26478,7 +26478,7 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26490,28 +26490,28 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
       <c r="J5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
       <c r="K5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
       <c r="L5" t="n">
         <v>46624.08715147127</v>
       </c>
       <c r="M5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
       <c r="N5" t="n">
         <v>46624.08715147127</v>
       </c>
       <c r="O5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
       <c r="P5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18036.14100330121</v>
+        <v>18006.75388447131</v>
       </c>
       <c r="C6" t="n">
-        <v>-9340.134686503829</v>
+        <v>-9340.134686503712</v>
       </c>
       <c r="D6" t="n">
-        <v>30354.21226097151</v>
+        <v>30354.21226097145</v>
       </c>
       <c r="E6" t="n">
-        <v>-365370.2297596428</v>
+        <v>-365924.1102028646</v>
       </c>
       <c r="F6" t="n">
-        <v>147115.279796339</v>
+        <v>146561.399353117</v>
       </c>
       <c r="G6" t="n">
-        <v>147115.279796339</v>
+        <v>146561.399353117</v>
       </c>
       <c r="H6" t="n">
-        <v>147115.279796339</v>
+        <v>146561.399353117</v>
       </c>
       <c r="I6" t="n">
-        <v>142036.3425201809</v>
+        <v>141490.0598438516</v>
       </c>
       <c r="J6" t="n">
-        <v>147505.9448638003</v>
+        <v>146959.6621874709</v>
       </c>
       <c r="K6" t="n">
-        <v>138566.0872007044</v>
+        <v>138019.804524375</v>
       </c>
       <c r="L6" t="n">
-        <v>148359.571214016</v>
+        <v>147813.2885376867</v>
       </c>
       <c r="M6" t="n">
-        <v>11604.66683090068</v>
+        <v>11058.38415457127</v>
       </c>
       <c r="N6" t="n">
-        <v>148359.571214016</v>
+        <v>147813.2885376867</v>
       </c>
       <c r="O6" t="n">
-        <v>148359.5712140161</v>
+        <v>147813.2885376867</v>
       </c>
       <c r="P6" t="n">
-        <v>148359.5712140161</v>
+        <v>147813.2885376867</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="J3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="K3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="L3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="M3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="N3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="O3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
       <c r="P3" t="n">
-        <v>472.5082236904274</v>
+        <v>472.5082236904273</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
@@ -26798,7 +26798,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,28 +26810,28 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="J4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286177</v>
       </c>
       <c r="K4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="L4" t="n">
         <v>597.4244716286178</v>
       </c>
       <c r="M4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286177</v>
       </c>
       <c r="N4" t="n">
         <v>597.4244716286178</v>
       </c>
       <c r="O4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="P4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286178</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.806295597206258</v>
+        <v>5.806295597206145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C4" t="n">
         <v>38.05245412526707</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.342577266683634</v>
+        <v>7.34257726668352</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260075</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526677</v>
+        <v>38.05245412526707</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
         <v>38.05245412526707</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>116.8283131467052</v>
       </c>
       <c r="C3" t="n">
-        <v>102.5182434609973</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>91.26573287418543</v>
       </c>
       <c r="E3" t="n">
-        <v>89.91666160405553</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G3" t="n">
         <v>81.26296338663548</v>
       </c>
       <c r="H3" t="n">
-        <v>38.00044053909289</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.573545479347</v>
       </c>
       <c r="D4" t="n">
-        <v>160.9566639482323</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>164.7978747895098</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>172.0663304071345</v>
       </c>
       <c r="G4" t="n">
         <v>163.9305612960722</v>
@@ -27557,7 +27557,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I4" t="n">
-        <v>84.75531963316698</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S4" t="n">
         <v>157.5652879271376</v>
@@ -27703,7 +27703,7 @@
         <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
         <v>41.23499695247265</v>
@@ -27751,7 +27751,7 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
-        <v>133.2535436095709</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>172.0581349818139</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5497288135992</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G7" t="n">
         <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
         <v>85.99716511640959</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.70060738470343</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>84.46078876789484</v>
+        <v>48.07053408363275</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27991,13 +27991,13 @@
         <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28028,7 +28028,7 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>101.5877743770993</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>207.3031764290495</v>
       </c>
     </row>
     <row r="11">
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32326,7 +32326,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
@@ -32563,13 +32563,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32706,7 +32706,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I23" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J23" t="n">
         <v>161.2202808058107</v>
@@ -32718,28 +32718,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M23" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N23" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O23" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P23" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R23" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S23" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T23" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U23" t="n">
         <v>0.1519624437999363</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H24" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I24" t="n">
-        <v>14.09076976765916</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J24" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K24" t="n">
         <v>164.1163704868912</v>
@@ -32800,28 +32800,28 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O24" t="n">
-        <v>241.8127699107039</v>
+        <v>220.9111853767613</v>
       </c>
       <c r="P24" t="n">
-        <v>194.0760664437154</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q24" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R24" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S24" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T24" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H25" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I25" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J25" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K25" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L25" t="n">
         <v>126.6786801677582</v>
@@ -32885,13 +32885,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P25" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R25" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S25" t="n">
         <v>14.84915188220572</v>
@@ -32900,7 +32900,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I26" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J26" t="n">
         <v>161.2202808058107</v>
@@ -32955,28 +32955,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M26" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N26" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O26" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P26" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R26" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S26" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T26" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U26" t="n">
         <v>0.1519624437999363</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H27" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I27" t="n">
-        <v>14.09076976765916</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J27" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450557</v>
       </c>
       <c r="K27" t="n">
         <v>164.1163704868912</v>
@@ -33037,28 +33037,28 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N27" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O27" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P27" t="n">
-        <v>194.0760664437154</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q27" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R27" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S27" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T27" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H28" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I28" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J28" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K28" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L28" t="n">
         <v>126.6786801677582</v>
@@ -33122,13 +33122,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P28" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R28" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S28" t="n">
         <v>14.84915188220572</v>
@@ -33137,7 +33137,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I29" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J29" t="n">
         <v>161.2202808058107</v>
@@ -33192,28 +33192,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M29" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N29" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O29" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P29" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R29" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S29" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T29" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U29" t="n">
         <v>0.1519624437999363</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H30" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I30" t="n">
-        <v>34.99235430160241</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J30" t="n">
-        <v>75.12011024450486</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K30" t="n">
         <v>164.1163704868912</v>
@@ -33271,31 +33271,31 @@
         <v>220.674713337685</v>
       </c>
       <c r="M30" t="n">
-        <v>257.5169819112829</v>
+        <v>236.6153973773403</v>
       </c>
       <c r="N30" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O30" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P30" t="n">
-        <v>194.0760664437154</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q30" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R30" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S30" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T30" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H31" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I31" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J31" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K31" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L31" t="n">
         <v>126.6786801677582</v>
@@ -33359,13 +33359,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P31" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R31" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S31" t="n">
         <v>14.84915188220572</v>
@@ -33374,7 +33374,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I32" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J32" t="n">
         <v>161.2202808058107</v>
@@ -33429,28 +33429,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M32" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N32" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O32" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P32" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R32" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S32" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T32" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U32" t="n">
         <v>0.1519624437999363</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H33" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I33" t="n">
-        <v>34.99235430160241</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J33" t="n">
-        <v>75.12011024450487</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K33" t="n">
         <v>164.1163704868912</v>
@@ -33511,28 +33511,28 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N33" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O33" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P33" t="n">
-        <v>194.0760664437154</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.7347107762849</v>
+        <v>108.8331262423424</v>
       </c>
       <c r="R33" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S33" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T33" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H34" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I34" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J34" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K34" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L34" t="n">
         <v>126.6786801677582</v>
@@ -33596,13 +33596,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P34" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R34" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S34" t="n">
         <v>14.84915188220572</v>
@@ -33611,7 +33611,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I35" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J35" t="n">
         <v>161.2202808058107</v>
@@ -33666,28 +33666,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M35" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N35" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O35" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P35" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R35" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S35" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T35" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U35" t="n">
         <v>0.1519624437999363</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H36" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I36" t="n">
-        <v>14.09076976765916</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J36" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K36" t="n">
         <v>164.1163704868912</v>
@@ -33748,28 +33748,28 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N36" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O36" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P36" t="n">
-        <v>194.0760664437154</v>
+        <v>173.1744819097728</v>
       </c>
       <c r="Q36" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R36" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S36" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T36" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H37" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I37" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J37" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K37" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L37" t="n">
         <v>126.6786801677582</v>
@@ -33833,13 +33833,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P37" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R37" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S37" t="n">
         <v>14.84915188220572</v>
@@ -33848,7 +33848,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I38" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J38" t="n">
         <v>161.2202808058107</v>
@@ -33903,28 +33903,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M38" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N38" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O38" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P38" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R38" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S38" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T38" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U38" t="n">
         <v>0.1519624437999363</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H39" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I39" t="n">
-        <v>34.99235430160241</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J39" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K39" t="n">
         <v>164.1163704868912</v>
       </c>
       <c r="L39" t="n">
-        <v>220.674713337685</v>
+        <v>199.7731288037425</v>
       </c>
       <c r="M39" t="n">
         <v>257.5169819112829</v>
       </c>
       <c r="N39" t="n">
-        <v>243.4311056228366</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O39" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P39" t="n">
-        <v>194.0760664437154</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q39" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R39" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S39" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T39" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H40" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I40" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J40" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K40" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L40" t="n">
         <v>126.6786801677582</v>
@@ -34070,13 +34070,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P40" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R40" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S40" t="n">
         <v>14.84915188220572</v>
@@ -34085,7 +34085,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I41" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J41" t="n">
         <v>161.2202808058107</v>
@@ -34140,28 +34140,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M41" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N41" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O41" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P41" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R41" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S41" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T41" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U41" t="n">
         <v>0.1519624437999363</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H42" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I42" t="n">
-        <v>34.99235430160241</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J42" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K42" t="n">
         <v>164.1163704868912</v>
@@ -34222,28 +34222,28 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N42" t="n">
-        <v>243.4311056228366</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O42" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P42" t="n">
-        <v>194.0760664437154</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q42" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R42" t="n">
-        <v>63.10213598643107</v>
+        <v>42.20055145248853</v>
       </c>
       <c r="S42" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T42" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H43" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I43" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J43" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K43" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L43" t="n">
         <v>126.6786801677582</v>
@@ -34307,13 +34307,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P43" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R43" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S43" t="n">
         <v>14.84915188220572</v>
@@ -34322,7 +34322,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>19.45356721957623</v>
       </c>
       <c r="I44" t="n">
-        <v>73.23165143246314</v>
+        <v>73.23165143246312</v>
       </c>
       <c r="J44" t="n">
         <v>161.2202808058107</v>
@@ -34377,28 +34377,28 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M44" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N44" t="n">
-        <v>338.9379844166521</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O44" t="n">
-        <v>320.0495275349568</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P44" t="n">
-        <v>273.1548671435702</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.1279294112549</v>
+        <v>205.1279294112548</v>
       </c>
       <c r="R44" t="n">
         <v>119.321385754347</v>
       </c>
       <c r="S44" t="n">
-        <v>43.28555235113816</v>
+        <v>43.28555235113815</v>
       </c>
       <c r="T44" t="n">
-        <v>8.315194971677771</v>
+        <v>8.315194971677769</v>
       </c>
       <c r="U44" t="n">
         <v>0.1519624437999363</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.016338443409599</v>
+        <v>1.016338443409598</v>
       </c>
       <c r="H45" t="n">
-        <v>9.815689703455861</v>
+        <v>9.81568970345586</v>
       </c>
       <c r="I45" t="n">
-        <v>14.09076976765916</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J45" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K45" t="n">
         <v>164.1163704868912</v>
@@ -34459,28 +34459,28 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N45" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O45" t="n">
         <v>241.8127699107039</v>
       </c>
       <c r="P45" t="n">
-        <v>194.0760664437154</v>
+        <v>173.1744819097728</v>
       </c>
       <c r="Q45" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R45" t="n">
-        <v>63.10213598643107</v>
+        <v>63.10213598643106</v>
       </c>
       <c r="S45" t="n">
         <v>18.8780408238581</v>
       </c>
       <c r="T45" t="n">
-        <v>4.096557146900969</v>
+        <v>4.096557146900968</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0668643712769473</v>
+        <v>0.06686437127694729</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8520640099335576</v>
+        <v>0.8520640099335574</v>
       </c>
       <c r="H46" t="n">
-        <v>7.575623651954726</v>
+        <v>7.575623651954724</v>
       </c>
       <c r="I46" t="n">
-        <v>25.62388858963827</v>
+        <v>25.62388858963826</v>
       </c>
       <c r="J46" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K46" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L46" t="n">
         <v>126.6786801677582</v>
@@ -34544,13 +34544,13 @@
         <v>120.4353747858814</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0532689832368</v>
+        <v>103.0532689832367</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.34874177725455</v>
+        <v>71.34874177725452</v>
       </c>
       <c r="R46" t="n">
-        <v>38.31189630119432</v>
+        <v>38.31189630119431</v>
       </c>
       <c r="S46" t="n">
         <v>14.84915188220572</v>
@@ -34559,7 +34559,7 @@
         <v>3.640637133352472</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04647621872364865</v>
+        <v>0.04647621872364863</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817428</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K2" t="n">
-        <v>1.361442175632202</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L2" t="n">
         <v>1.688989405823954</v>
@@ -34710,7 +34710,7 @@
         <v>1.879326147397212</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O2" t="n">
         <v>1.803309182076397</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723078</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K3" t="n">
         <v>0.9247086227794465</v>
@@ -34786,7 +34786,7 @@
         <v>1.243384859458851</v>
       </c>
       <c r="M3" t="n">
-        <v>1.45097148431346</v>
+        <v>1.914792018279732</v>
       </c>
       <c r="N3" t="n">
         <v>1.489374382002836</v>
@@ -34798,7 +34798,7 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.194806756563795</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R3" t="n">
         <v>0.3555470370770522</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260276</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K4" t="n">
-        <v>2.933030394141655</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819471</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783417</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425468</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559677</v>
+        <v>1.25085979785492</v>
       </c>
       <c r="P4" t="n">
         <v>0.5806504625449325</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.262548922260276</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34950,10 +34950,10 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752735</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35026,10 +35026,10 @@
         <v>17.85044062301152</v>
       </c>
       <c r="N6" t="n">
-        <v>31.74521502015016</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O6" t="n">
-        <v>16.76186346679083</v>
+        <v>38.51626375402859</v>
       </c>
       <c r="P6" t="n">
         <v>13.45287318408649</v>
@@ -35099,22 +35099,22 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829314</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154682</v>
+        <v>10.17006588498498</v>
       </c>
       <c r="N7" t="n">
-        <v>9.038245360419708</v>
+        <v>9.038245360419694</v>
       </c>
       <c r="O7" t="n">
-        <v>8.348282472750284</v>
+        <v>8.348282472750299</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800722</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.39134521367464</v>
+        <v>4.945718411146316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>26.43704954563547</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
         <v>17.85044062301152</v>
@@ -35266,16 +35266,16 @@
         <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
-        <v>16.76186346679083</v>
+        <v>36.98107647690854</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329024</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>40.58902466832906</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739427</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154689</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
-        <v>10.5684724707054</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752735</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>357.7090502563133</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>425.0797619663506</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35725,7 +35725,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409513</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320033</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463636</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -36053,13 +36053,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P19" t="n">
-        <v>282.8091884238495</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,22 +36120,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36281,7 +36281,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>547.5562458447062</v>
@@ -36290,16 +36290,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.10166275847632</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J23" t="n">
-        <v>161.2202808058109</v>
+        <v>161.2202808058107</v>
       </c>
       <c r="K23" t="n">
         <v>241.6274088814521</v>
@@ -36366,22 +36366,22 @@
         <v>299.7601668744809</v>
       </c>
       <c r="M23" t="n">
-        <v>333.54094324857</v>
+        <v>333.5409432485699</v>
       </c>
       <c r="N23" t="n">
         <v>338.9379844166519</v>
       </c>
       <c r="O23" t="n">
-        <v>320.049527534957</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P23" t="n">
-        <v>273.1548671435701</v>
+        <v>273.1548671435703</v>
       </c>
       <c r="Q23" t="n">
         <v>205.1279294112546</v>
       </c>
       <c r="R23" t="n">
-        <v>119.3213857543474</v>
+        <v>119.3213857543469</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J24" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K24" t="n">
         <v>164.1163704868912</v>
@@ -36445,16 +36445,16 @@
         <v>220.674713337685</v>
       </c>
       <c r="M24" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O24" t="n">
-        <v>241.812769910704</v>
+        <v>220.9111853767613</v>
       </c>
       <c r="P24" t="n">
-        <v>194.0760664437155</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q24" t="n">
         <v>129.7347107762848</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.24092550230252</v>
+        <v>60.24092550230251</v>
       </c>
       <c r="K25" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L25" t="n">
         <v>549.1129041757997</v>
       </c>
       <c r="M25" t="n">
-        <v>597.4244716286178</v>
+        <v>597.4244716286179</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3890316291963</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O25" t="n">
-        <v>544.3437073371758</v>
+        <v>291.1615174315343</v>
       </c>
       <c r="P25" t="n">
-        <v>296.5971428731957</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q25" t="n">
         <v>71.34874177725442</v>
       </c>
       <c r="R25" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J26" t="n">
         <v>161.2202808058107</v>
       </c>
       <c r="K26" t="n">
-        <v>241.6274088814521</v>
+        <v>241.627408881452</v>
       </c>
       <c r="L26" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744809</v>
       </c>
       <c r="M26" t="n">
         <v>333.5409432485699</v>
@@ -36612,13 +36612,13 @@
         <v>320.0495275349567</v>
       </c>
       <c r="P26" t="n">
-        <v>273.1548671435703</v>
+        <v>273.1548671435698</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R26" t="n">
-        <v>119.3213857543465</v>
+        <v>119.3213857543474</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.09076976765916</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J27" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450557</v>
       </c>
       <c r="K27" t="n">
         <v>164.1163704868912</v>
@@ -36682,16 +36682,16 @@
         <v>220.674713337685</v>
       </c>
       <c r="M27" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N27" t="n">
         <v>264.3326901567798</v>
       </c>
       <c r="O27" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P27" t="n">
-        <v>194.0760664437155</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q27" t="n">
         <v>129.7347107762848</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.24092550230252</v>
+        <v>60.2409255023025</v>
       </c>
       <c r="K28" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137147</v>
       </c>
       <c r="L28" t="n">
-        <v>295.9307142701581</v>
+        <v>549.1129041757997</v>
       </c>
       <c r="M28" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286177</v>
       </c>
       <c r="N28" t="n">
-        <v>577.1150954247969</v>
+        <v>577.1150954247967</v>
       </c>
       <c r="O28" t="n">
-        <v>544.3437073371758</v>
+        <v>291.1615174315339</v>
       </c>
       <c r="P28" t="n">
         <v>103.0532689832366</v>
@@ -36776,7 +36776,7 @@
         <v>71.34874177725442</v>
       </c>
       <c r="R28" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J29" t="n">
-        <v>161.2202808058109</v>
+        <v>161.2202808058105</v>
       </c>
       <c r="K29" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L29" t="n">
-        <v>299.7601668744812</v>
+        <v>299.760166874481</v>
       </c>
       <c r="M29" t="n">
         <v>333.5409432485699</v>
       </c>
       <c r="N29" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O29" t="n">
         <v>320.0495275349567</v>
@@ -36852,10 +36852,10 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R29" t="n">
-        <v>119.3213857543465</v>
+        <v>119.3213857543469</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J30" t="n">
-        <v>75.12011024450486</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K30" t="n">
         <v>164.1163704868912</v>
@@ -36919,16 +36919,16 @@
         <v>220.674713337685</v>
       </c>
       <c r="M30" t="n">
-        <v>257.516981911283</v>
+        <v>236.6153973773403</v>
       </c>
       <c r="N30" t="n">
         <v>264.3326901567798</v>
       </c>
       <c r="O30" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P30" t="n">
-        <v>194.0760664437155</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q30" t="n">
         <v>129.7347107762848</v>
@@ -36992,28 +36992,28 @@
         <v>147.6951529413832</v>
       </c>
       <c r="K31" t="n">
-        <v>98.99434588137149</v>
+        <v>222.2174935899553</v>
       </c>
       <c r="L31" t="n">
-        <v>126.6786801677582</v>
+        <v>549.1129041757997</v>
       </c>
       <c r="M31" t="n">
-        <v>597.4244716286178</v>
+        <v>133.5649065753121</v>
       </c>
       <c r="N31" t="n">
-        <v>577.1150954247969</v>
+        <v>577.1150954247967</v>
       </c>
       <c r="O31" t="n">
-        <v>544.3437073371756</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P31" t="n">
-        <v>184.8510756465562</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q31" t="n">
         <v>71.34874177725442</v>
       </c>
       <c r="R31" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J32" t="n">
-        <v>161.2202808058105</v>
+        <v>161.2202808058107</v>
       </c>
       <c r="K32" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L32" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744809</v>
       </c>
       <c r="M32" t="n">
         <v>333.5409432485699</v>
       </c>
       <c r="N32" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O32" t="n">
-        <v>320.049527534957</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P32" t="n">
         <v>273.1548671435703</v>
@@ -37147,7 +37147,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J33" t="n">
-        <v>75.12011024450487</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K33" t="n">
         <v>164.1163704868912</v>
@@ -37156,19 +37156,19 @@
         <v>220.674713337685</v>
       </c>
       <c r="M33" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N33" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O33" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P33" t="n">
-        <v>194.0760664437155</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.7347107762848</v>
+        <v>108.8331262423424</v>
       </c>
       <c r="R33" t="n">
         <v>63.10213598643099</v>
@@ -37229,7 +37229,7 @@
         <v>60.24092550230251</v>
       </c>
       <c r="K34" t="n">
-        <v>98.99434588137149</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L34" t="n">
         <v>549.1129041757997</v>
@@ -37238,19 +37238,19 @@
         <v>597.4244716286179</v>
       </c>
       <c r="N34" t="n">
-        <v>130.3890316291963</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O34" t="n">
-        <v>544.3437073371758</v>
+        <v>291.1615174315343</v>
       </c>
       <c r="P34" t="n">
-        <v>296.5971428731953</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q34" t="n">
         <v>71.34874177725442</v>
       </c>
       <c r="R34" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J35" t="n">
         <v>161.2202808058107</v>
@@ -37311,10 +37311,10 @@
         <v>241.6274088814521</v>
       </c>
       <c r="L35" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744809</v>
       </c>
       <c r="M35" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N35" t="n">
         <v>338.9379844166519</v>
@@ -37323,13 +37323,13 @@
         <v>320.0495275349567</v>
       </c>
       <c r="P35" t="n">
-        <v>273.1548671435703</v>
+        <v>273.1548671435698</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R35" t="n">
-        <v>119.3213857543465</v>
+        <v>119.3213857543474</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.09076976765916</v>
+        <v>34.9923543016024</v>
       </c>
       <c r="J36" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844807</v>
       </c>
       <c r="K36" t="n">
         <v>164.1163704868912</v>
@@ -37393,16 +37393,16 @@
         <v>220.674713337685</v>
       </c>
       <c r="M36" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N36" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O36" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P36" t="n">
-        <v>194.0760664437155</v>
+        <v>173.1744819097728</v>
       </c>
       <c r="Q36" t="n">
         <v>129.7347107762848</v>
@@ -37466,28 +37466,28 @@
         <v>147.6951529413832</v>
       </c>
       <c r="K37" t="n">
-        <v>376.528138377468</v>
+        <v>182.2662610879431</v>
       </c>
       <c r="L37" t="n">
         <v>549.1129041757997</v>
       </c>
       <c r="M37" t="n">
-        <v>133.5649065753121</v>
+        <v>597.4244716286177</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3890316291961</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O37" t="n">
-        <v>315.8503699466028</v>
+        <v>120.4353747858813</v>
       </c>
       <c r="P37" t="n">
-        <v>454.0703335997437</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q37" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R37" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J38" t="n">
-        <v>161.2202808058108</v>
+        <v>161.2202808058105</v>
       </c>
       <c r="K38" t="n">
-        <v>241.6274088814521</v>
+        <v>241.6274088814519</v>
       </c>
       <c r="L38" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744808</v>
       </c>
       <c r="M38" t="n">
-        <v>333.5409432485698</v>
+        <v>333.5409432485699</v>
       </c>
       <c r="N38" t="n">
         <v>338.9379844166519</v>
       </c>
       <c r="O38" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P38" t="n">
-        <v>273.1548671435703</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q38" t="n">
         <v>205.1279294112546</v>
       </c>
       <c r="R38" t="n">
-        <v>119.3213857543469</v>
+        <v>119.3213857543474</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J39" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K39" t="n">
         <v>164.1163704868912</v>
       </c>
       <c r="L39" t="n">
-        <v>220.674713337685</v>
+        <v>199.7731288037425</v>
       </c>
       <c r="M39" t="n">
         <v>257.5169819112829</v>
       </c>
       <c r="N39" t="n">
-        <v>243.4311056228366</v>
+        <v>264.3326901567798</v>
       </c>
       <c r="O39" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P39" t="n">
-        <v>194.0760664437155</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q39" t="n">
         <v>129.7347107762848</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230251</v>
       </c>
       <c r="K40" t="n">
-        <v>376.5281383774681</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L40" t="n">
-        <v>549.1129041757997</v>
+        <v>295.9307142701585</v>
       </c>
       <c r="M40" t="n">
         <v>597.4244716286178</v>
       </c>
       <c r="N40" t="n">
-        <v>212.9615263531184</v>
+        <v>577.1150954247967</v>
       </c>
       <c r="O40" t="n">
-        <v>120.4353747858813</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P40" t="n">
         <v>103.0532689832366</v>
       </c>
       <c r="Q40" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R40" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J41" t="n">
         <v>161.2202808058107</v>
@@ -37785,7 +37785,7 @@
         <v>241.6274088814521</v>
       </c>
       <c r="L41" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744809</v>
       </c>
       <c r="M41" t="n">
         <v>333.5409432485699</v>
@@ -37800,10 +37800,10 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R41" t="n">
-        <v>119.3213857543465</v>
+        <v>119.3213857543469</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J42" t="n">
-        <v>96.02169477844809</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K42" t="n">
         <v>164.1163704868912</v>
@@ -37870,19 +37870,19 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N42" t="n">
-        <v>243.4311056228366</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O42" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P42" t="n">
-        <v>194.0760664437155</v>
+        <v>194.0760664437153</v>
       </c>
       <c r="Q42" t="n">
         <v>129.7347107762848</v>
       </c>
       <c r="R42" t="n">
-        <v>63.10213598643099</v>
+        <v>42.20055145248853</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230251</v>
       </c>
       <c r="K43" t="n">
-        <v>376.528138377468</v>
+        <v>98.99434588137146</v>
       </c>
       <c r="L43" t="n">
         <v>549.1129041757997</v>
       </c>
       <c r="M43" t="n">
-        <v>328.9799017360333</v>
+        <v>133.5649065753121</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3890316291963</v>
+        <v>436.7754059559542</v>
       </c>
       <c r="O43" t="n">
-        <v>120.4353747858813</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P43" t="n">
         <v>454.0703335997437</v>
       </c>
       <c r="Q43" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R43" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>72.81902995333174</v>
+        <v>72.81902995333172</v>
       </c>
       <c r="J44" t="n">
-        <v>161.2202808058109</v>
+        <v>161.2202808058105</v>
       </c>
       <c r="K44" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L44" t="n">
-        <v>299.7601668744812</v>
+        <v>299.760166874481</v>
       </c>
       <c r="M44" t="n">
         <v>333.5409432485699</v>
       </c>
       <c r="N44" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O44" t="n">
         <v>320.0495275349567</v>
@@ -38037,10 +38037,10 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R44" t="n">
-        <v>119.3213857543465</v>
+        <v>119.3213857543469</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J45" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844808</v>
       </c>
       <c r="K45" t="n">
         <v>164.1163704868912</v>
@@ -38104,16 +38104,16 @@
         <v>220.674713337685</v>
       </c>
       <c r="M45" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N45" t="n">
-        <v>264.3326901567798</v>
+        <v>264.3326901567797</v>
       </c>
       <c r="O45" t="n">
-        <v>241.812769910704</v>
+        <v>241.8127699107038</v>
       </c>
       <c r="P45" t="n">
-        <v>194.0760664437155</v>
+        <v>173.1744819097728</v>
       </c>
       <c r="Q45" t="n">
         <v>129.7347107762848</v>
@@ -38177,28 +38177,28 @@
         <v>147.6951529413832</v>
       </c>
       <c r="K46" t="n">
-        <v>98.99434588137149</v>
+        <v>376.5281383774681</v>
       </c>
       <c r="L46" t="n">
-        <v>208.4764868310775</v>
+        <v>549.1129041757997</v>
       </c>
       <c r="M46" t="n">
-        <v>597.4244716286179</v>
+        <v>133.5649065753121</v>
       </c>
       <c r="N46" t="n">
-        <v>577.1150954247969</v>
+        <v>130.3890316291961</v>
       </c>
       <c r="O46" t="n">
-        <v>544.3437073371758</v>
+        <v>315.8503699466028</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0532689832366</v>
+        <v>454.0703335997437</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.34874177725442</v>
+        <v>241.2404335594083</v>
       </c>
       <c r="R46" t="n">
-        <v>17.10825321951248</v>
+        <v>17.10825321951247</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
